--- a/KHC_ExpenseTracker.xlsx
+++ b/KHC_ExpenseTracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Praveen.TN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Praveen.TN\Downloads\Quasar\Github\KeralaHouseConstruction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C1003C-9C24-4927-8789-AD35E408394C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7BE92D-AA3E-4C09-A0EC-D0495F6DBE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1B45EFAD-8CF7-430C-A82A-785E0A36260D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -285,6 +285,27 @@
   </si>
   <si>
     <t>Possession certificate to Tvm Corp. for TC No. | 27th Mar</t>
+  </si>
+  <si>
+    <t>Well | 23rd Mar 2025</t>
+  </si>
+  <si>
+    <t>Well | 25th Mar 2025</t>
+  </si>
+  <si>
+    <t>Labour Cess | 16th Apr 2025</t>
+  </si>
+  <si>
+    <t>Poojari | housewarming | 20th Apr 2025</t>
+  </si>
+  <si>
+    <t>Panthal | housewarming | 20th Apr 2025</t>
+  </si>
+  <si>
+    <t>Catering | housewarming | 20th Apr 2025</t>
+  </si>
+  <si>
+    <t>Dakshina - workers | housewarming | 20th Apr 2025</t>
   </si>
 </sst>
 </file>
@@ -714,11 +735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97879F28-E061-4B55-A881-D4D6A684CDA6}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,20 +1941,155 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="10">
         <v>45743</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="11">
         <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="6">
+        <v>45739</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="10">
+        <v>45741</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="11">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="6">
+        <v>45763</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="7">
+        <f>23143+150</f>
+        <v>23293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="10">
+        <v>45767</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="11">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="6">
+        <v>45767</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="10">
+        <v>45767</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="11">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="6">
+        <v>45767</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="7">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="11"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f>SUBTOTAL(9, E2:E78)</f>
+        <v>5581865</v>
       </c>
     </row>
   </sheetData>
